--- a/merkur.xlsx
+++ b/merkur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frbj\Desktop\Merkur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antondurcak/Documents/via/SemesterVI/MAL/assignment_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560962A-5082-420C-86A2-77BE6019C84E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F69A9-A61C-8041-9A98-5A4CF86DB3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{8BBB11B0-1B43-487C-9CCB-9BB20389BA65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8BBB11B0-1B43-487C-9CCB-9BB20389BA65}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -455,9 +455,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +495,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +601,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,11 +753,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67BADF6-83C4-4B85-B733-29E4821F5FB1}">
   <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -840,7 +865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -908,7 +933,7 @@
         <v>253543</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1010,7 @@
         <v>612094</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1065,7 +1090,7 @@
         <v>682318</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1149,7 @@
         <v>156998</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1208,7 @@
         <v>6710</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1285,7 @@
         <v>1321940</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1356,7 @@
         <v>181151</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>761988</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1491,7 +1516,7 @@
         <v>1233054</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>364399</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1661,7 @@
         <v>906060</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1707,7 +1732,7 @@
         <v>497710</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1812,7 @@
         <v>620914</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +1880,7 @@
         <v>315086</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1938,7 +1963,7 @@
         <v>994198</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +2022,7 @@
         <v>505805</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2105,7 @@
         <v>1370517</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2182,7 @@
         <v>674385</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2228,7 +2253,7 @@
         <v>48803</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2311,7 +2336,7 @@
         <v>2089148</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2419,7 @@
         <v>926135</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2496,7 @@
         <v>313459</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2570,7 @@
         <v>43499</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2628,7 +2653,7 @@
         <v>805818</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2681,7 +2706,7 @@
         <v>177463</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2734,7 +2759,7 @@
         <v>153735</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2817,7 +2842,7 @@
         <v>4124209</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2879,7 +2904,7 @@
         <v>161760</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3024,7 +3049,7 @@
         <v>3642899</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3098,7 +3123,7 @@
         <v>72945</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3197,7 @@
         <v>101811</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3234,7 +3259,7 @@
         <v>92450</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3317,7 +3342,7 @@
         <v>3038488</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3373,7 +3398,7 @@
         <v>51530</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3481,7 @@
         <v>1950157</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3536,7 +3561,7 @@
         <v>3278808</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3619,7 +3644,7 @@
         <v>2734490</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3690,7 +3715,7 @@
         <v>318307</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3770,7 +3795,7 @@
         <v>101137</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3832,7 +3857,7 @@
         <v>748994</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3903,7 +3928,7 @@
         <v>70658</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3977,7 +4002,7 @@
         <v>135054</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4045,7 +4070,7 @@
         <v>1570048</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4122,7 +4147,7 @@
         <v>519069</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4205,7 +4230,7 @@
         <v>1199537</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4288,7 +4313,7 @@
         <v>580222</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4347,7 +4372,7 @@
         <v>1103338</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4406,7 +4431,7 @@
         <v>1233727</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4486,7 +4511,7 @@
         <v>1812702</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4539,7 +4564,7 @@
         <v>259538</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4610,7 +4635,7 @@
         <v>240531</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -4690,7 +4715,7 @@
         <v>1070079</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4761,7 +4786,7 @@
         <v>128132</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4835,7 +4860,7 @@
         <v>1036748</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4915,7 +4940,7 @@
         <v>868440</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4995,7 +5020,7 @@
         <v>2274819</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5072,7 +5097,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5152,7 +5177,7 @@
         <v>598033</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -5235,7 +5260,7 @@
         <v>794746</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -5294,7 +5319,7 @@
         <v>571980</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5377,7 +5402,7 @@
         <v>568083</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -5451,7 +5476,7 @@
         <v>338394</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5522,7 +5547,7 @@
         <v>1336931</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -5605,7 +5630,7 @@
         <v>1904277</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -5685,7 +5710,7 @@
         <v>139583</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -5756,7 +5781,7 @@
         <v>330513</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -5809,7 +5834,7 @@
         <v>633054</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -5868,7 +5893,7 @@
         <v>1256185</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -5918,7 +5943,7 @@
         <v>114042</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -5983,7 +6008,7 @@
         <v>499647</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -6054,7 +6079,7 @@
         <v>330776</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6116,7 +6141,7 @@
         <v>893390</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -6187,7 +6212,7 @@
         <v>181680</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -6258,7 +6283,7 @@
         <v>11454775</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -6338,7 +6363,7 @@
         <v>11021800</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -6421,7 +6446,7 @@
         <v>423362</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -6480,7 +6505,7 @@
         <v>1521895</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6550,5 +6575,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>